--- a/public/data/profit/profit_table_mali.xlsx
+++ b/public/data/profit/profit_table_mali.xlsx
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-12.24</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1788,25 +1788,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-42.96</v>
+        <v>-7.64</v>
       </c>
       <c r="L8" t="n">
-        <v>-33</v>
+        <v>8.6</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-42.53</v>
+        <v>-6.77</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-43.46</v>
+        <v>-16.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>-5.66</v>
+        <v>375.78</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-43.71</v>
+        <v>-20.98</v>
       </c>
       <c r="U8" t="n">
-        <v>-42.52</v>
+        <v>-4.67</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-25.02</v>
+        <v>266.71</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-31.17</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-18.6</v>
+        <v>-17.4</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-14.47</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-13.12</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2108,25 +2108,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-39.15</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-31.47</v>
+        <v>4.98</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-39.14</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-39.85</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-40.04</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-39.49</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-19.72</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.63</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-15.02</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-13.79</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-5.29</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3068,25 +3068,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-43.72</v>
+        <v>-5.52</v>
       </c>
       <c r="L24" t="n">
-        <v>-11.55</v>
+        <v>27.37</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-44.45</v>
+        <v>-6.05</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-46.4</v>
+        <v>-14.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>67.46</v>
+        <v>344.73</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3095,16 +3095,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-47.63</v>
+        <v>-18.39</v>
       </c>
       <c r="U24" t="n">
-        <v>-45.74</v>
+        <v>-3.33</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>34.68</v>
+        <v>254.19</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-13.12</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-11.51</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-10.83</v>
+        <v>6.63</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4348,25 +4348,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-4.48</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-11.01</v>
+        <v>-2.35</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-4.48</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-4.48</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-4.44</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-4.48</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-4.48</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-4.47</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.87</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-4.67</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-9.79</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-9.23</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-5.8</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-12.42</v>
+        <v>-5.48</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4745,25 +4745,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-9.8</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>-15.16</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-16.63</v>
+        <v>-2.2</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-14.77</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>-16.79</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>-18.18</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
